--- a/fuction_ensemble_1/redes-ensemble-s/mse_sup/25_model_23_9_24.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/mse_sup/25_model_23_9_24.xlsx
@@ -466,7 +466,7 @@
         <v>3.274622503218271</v>
       </c>
       <c r="D2" t="n">
-        <v>3.232669353485107</v>
+        <v>3.232669591903687</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +494,7 @@
         <v>1.657512896333784</v>
       </c>
       <c r="D4" t="n">
-        <v>1.662748575210571</v>
+        <v>1.662748694419861</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         <v>2.618991867025821</v>
       </c>
       <c r="D5" t="n">
-        <v>2.610060214996338</v>
+        <v>2.610060453414917</v>
       </c>
     </row>
     <row r="6">
@@ -550,7 +550,7 @@
         <v>1.438483443418912</v>
       </c>
       <c r="D8" t="n">
-        <v>1.450130820274353</v>
+        <v>1.450130701065063</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +564,7 @@
         <v>1.686432489438351</v>
       </c>
       <c r="D9" t="n">
-        <v>1.690667152404785</v>
+        <v>1.690667271614075</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>2.647911460130388</v>
       </c>
       <c r="D10" t="n">
-        <v>2.626392364501953</v>
+        <v>2.626392126083374</v>
       </c>
     </row>
     <row r="11">
@@ -620,7 +620,7 @@
         <v>1.752686319765095</v>
       </c>
       <c r="D13" t="n">
-        <v>1.762549161911011</v>
+        <v>1.7625492811203</v>
       </c>
     </row>
     <row r="14">
@@ -704,7 +704,7 @@
         <v>0.705123113609381</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7157576084136963</v>
+        <v>0.7157579660415649</v>
       </c>
     </row>
     <row r="20">
@@ -774,7 +774,7 @@
         <v>0.9430652079435018</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9513742923736572</v>
+        <v>0.9513739347457886</v>
       </c>
     </row>
     <row r="25">
@@ -788,7 +788,7 @@
         <v>1.904544178635538</v>
       </c>
       <c r="D25" t="n">
-        <v>1.893833994865417</v>
+        <v>1.893834233283997</v>
       </c>
     </row>
     <row r="26">
@@ -802,7 +802,7 @@
         <v>1.759168997909792</v>
       </c>
       <c r="D26" t="n">
-        <v>1.752158641815186</v>
+        <v>1.752158403396606</v>
       </c>
     </row>
   </sheetData>
